--- a/220527_small_cap.xlsx
+++ b/220527_small_cap.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Growth</t>
+          <t>PE19_21</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PE19_21</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>PB</t>
         </is>
@@ -424,12 +419,9 @@
         <v>121.88775206</v>
       </c>
       <c r="F2">
-        <v>0.376470588</v>
+        <v>9.189102564000001</v>
       </c>
       <c r="G2">
-        <v>9.189102564000001</v>
-      </c>
-      <c r="H2">
         <v>0.822408996</v>
       </c>
     </row>
@@ -458,12 +450,9 @@
         <v>158.343228</v>
       </c>
       <c r="F3">
-        <v>2.048648649</v>
+        <v>9.722222221999999</v>
       </c>
       <c r="G3">
-        <v>9.722222221999999</v>
-      </c>
-      <c r="H3">
         <v>1.447341408</v>
       </c>
     </row>
@@ -492,12 +481,9 @@
         <v>114.30281721</v>
       </c>
       <c r="F4">
-        <v>3.093093923</v>
+        <v>7.167442802</v>
       </c>
       <c r="G4">
-        <v>7.167442802</v>
-      </c>
-      <c r="H4">
         <v>1.233965421</v>
       </c>
     </row>
@@ -526,12 +512,9 @@
         <v>124.33927143</v>
       </c>
       <c r="F5">
-        <v>7.78293601</v>
+        <v>9.142857143000001</v>
       </c>
       <c r="G5">
-        <v>9.142857143000001</v>
-      </c>
-      <c r="H5">
         <v>0.613873542</v>
       </c>
     </row>
@@ -560,12 +543,9 @@
         <v>154.08887986</v>
       </c>
       <c r="F6">
-        <v>0.573658537</v>
+        <v>11.97303162</v>
       </c>
       <c r="G6">
-        <v>11.97303162</v>
-      </c>
-      <c r="H6">
         <v>1.142692316</v>
       </c>
     </row>
@@ -594,12 +574,9 @@
         <v>170.33693453</v>
       </c>
       <c r="F7">
-        <v>1.22556391</v>
+        <v>3.324324324</v>
       </c>
       <c r="G7">
-        <v>3.324324324</v>
-      </c>
-      <c r="H7">
         <v>0.503731916</v>
       </c>
     </row>
@@ -628,12 +605,9 @@
         <v>199.10393292</v>
       </c>
       <c r="F8">
-        <v>1.588418189</v>
+        <v>10.94594595</v>
       </c>
       <c r="G8">
-        <v>10.94594595</v>
-      </c>
-      <c r="H8">
         <v>0.824371544</v>
       </c>
     </row>
@@ -662,12 +636,9 @@
         <v>146.15374838</v>
       </c>
       <c r="F9">
-        <v>1.38961039</v>
+        <v>6.809782609</v>
       </c>
       <c r="G9">
-        <v>6.809782609</v>
-      </c>
-      <c r="H9">
         <v>1.058160844</v>
       </c>
     </row>
@@ -696,12 +667,9 @@
         <v>190.7374625</v>
       </c>
       <c r="F10">
-        <v>1.036585366</v>
+        <v>11.2994012</v>
       </c>
       <c r="G10">
-        <v>11.2994012</v>
-      </c>
-      <c r="H10">
         <v>1.144281322</v>
       </c>
     </row>
@@ -730,12 +698,9 @@
         <v>114.29900932</v>
       </c>
       <c r="F11">
-        <v>0.875</v>
+        <v>8.533333333</v>
       </c>
       <c r="G11">
-        <v>8.533333333</v>
-      </c>
-      <c r="H11">
         <v>1.055828428</v>
       </c>
     </row>
@@ -764,12 +729,9 @@
         <v>136.04438298</v>
       </c>
       <c r="F12">
-        <v>0.928986784</v>
+        <v>11.42778844</v>
       </c>
       <c r="G12">
-        <v>11.42778844</v>
-      </c>
-      <c r="H12">
         <v>1.26847965</v>
       </c>
     </row>
@@ -798,12 +760,9 @@
         <v>105.03942891</v>
       </c>
       <c r="F13">
-        <v>1.810574599</v>
+        <v>5.828904131</v>
       </c>
       <c r="G13">
-        <v>5.828904131</v>
-      </c>
-      <c r="H13">
         <v>0.896272483</v>
       </c>
     </row>
@@ -832,12 +791,9 @@
         <v>133.60693959</v>
       </c>
       <c r="F14">
-        <v>0.445339471</v>
+        <v>6.466958599</v>
       </c>
       <c r="G14">
-        <v>6.466958599</v>
-      </c>
-      <c r="H14">
         <v>0.88816356</v>
       </c>
     </row>
@@ -866,12 +822,9 @@
         <v>146.93098145</v>
       </c>
       <c r="F15">
-        <v>0.488</v>
+        <v>5.612903226</v>
       </c>
       <c r="G15">
-        <v>5.612903226</v>
-      </c>
-      <c r="H15">
         <v>0.870217554</v>
       </c>
     </row>
@@ -900,12 +853,9 @@
         <v>143.77226059</v>
       </c>
       <c r="F16">
-        <v>0.704166667</v>
+        <v>7.745721271</v>
       </c>
       <c r="G16">
-        <v>7.745721271</v>
-      </c>
-      <c r="H16">
         <v>0.869694125</v>
       </c>
     </row>
@@ -934,12 +884,9 @@
         <v>149.66533498</v>
       </c>
       <c r="F17">
-        <v>0.665584416</v>
+        <v>14.11574914</v>
       </c>
       <c r="G17">
-        <v>14.11574914</v>
-      </c>
-      <c r="H17">
         <v>1.12870457</v>
       </c>
     </row>
@@ -968,12 +915,9 @@
         <v>129.71454875</v>
       </c>
       <c r="F18">
-        <v>3.222222222</v>
+        <v>11.09210526</v>
       </c>
       <c r="G18">
-        <v>11.09210526</v>
-      </c>
-      <c r="H18">
         <v>0.808330696</v>
       </c>
     </row>
@@ -1002,12 +946,9 @@
         <v>167.31879344</v>
       </c>
       <c r="F19">
-        <v>0.96875</v>
+        <v>12.36507937</v>
       </c>
       <c r="G19">
-        <v>12.36507937</v>
-      </c>
-      <c r="H19">
         <v>0.773415937</v>
       </c>
     </row>
@@ -1036,12 +977,9 @@
         <v>106.73991378</v>
       </c>
       <c r="F20">
-        <v>2.9996568</v>
+        <v>8.720181911999999</v>
       </c>
       <c r="G20">
-        <v>8.720181911999999</v>
-      </c>
-      <c r="H20">
         <v>1.276423377</v>
       </c>
     </row>
@@ -1070,12 +1008,9 @@
         <v>181.75719367</v>
       </c>
       <c r="F21">
-        <v>5.490196078</v>
+        <v>5.148036254</v>
       </c>
       <c r="G21">
-        <v>5.148036254</v>
-      </c>
-      <c r="H21">
         <v>0.673328829</v>
       </c>
     </row>
@@ -1104,12 +1039,9 @@
         <v>101.70271688</v>
       </c>
       <c r="F22">
-        <v>6.659574468</v>
+        <v>8.108333332999999</v>
       </c>
       <c r="G22">
-        <v>8.108333332999999</v>
-      </c>
-      <c r="H22">
         <v>1.317339327</v>
       </c>
     </row>
@@ -1138,12 +1070,9 @@
         <v>190.5322233</v>
       </c>
       <c r="F23">
-        <v>0.430463576</v>
+        <v>8.291666666999999</v>
       </c>
       <c r="G23">
-        <v>8.291666666999999</v>
-      </c>
-      <c r="H23">
         <v>0.753464422</v>
       </c>
     </row>
@@ -1172,12 +1101,9 @@
         <v>192.35216223</v>
       </c>
       <c r="F24">
-        <v>1.32038835</v>
+        <v>10.51882845</v>
       </c>
       <c r="G24">
-        <v>10.51882845</v>
-      </c>
-      <c r="H24">
         <v>1.426601522</v>
       </c>
     </row>
